--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E577E7B2-33C5-A845-8978-D0FB9089F41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7077ED-1825-0747-BC4C-6B8D07DF2E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Week</t>
   </si>
@@ -87,18 +87,12 @@
     <t>Th: February 6, 2025</t>
   </si>
   <si>
-    <t>M: February 10, 2025</t>
-  </si>
-  <si>
     <t>T: February 11, 2025</t>
   </si>
   <si>
     <t>Th: February 13, 2025</t>
   </si>
   <si>
-    <t>M: February 17, 2025</t>
-  </si>
-  <si>
     <t>T: February 18, 2025</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Th: March 27, 2025</t>
   </si>
   <si>
-    <t>M: March 31, 2025</t>
-  </si>
-  <si>
     <t>T: April 1, 2025</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>Th: April 24, 2025</t>
   </si>
   <si>
-    <t>M: April 28, 2025</t>
-  </si>
-  <si>
     <t>T: April 29, 2025</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>W1 continued…</t>
   </si>
   <si>
-    <t>M: January 27, 2025</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 1 due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -310,6 +295,39 @@
   </si>
   <si>
     <t>[W16: Last Class / Final Review](../modules/W15-16.html)</t>
+  </si>
+  <si>
+    <t>Su: January 26, 2025</t>
+  </si>
+  <si>
+    <t>Su: February 2, 2025</t>
+  </si>
+  <si>
+    <t>Su: February 9, 2025</t>
+  </si>
+  <si>
+    <t>Su: February 16, 2025</t>
+  </si>
+  <si>
+    <t>M: February 24, 2025</t>
+  </si>
+  <si>
+    <t>Su: February 23, 2025</t>
+  </si>
+  <si>
+    <t>Su: March 30, 2025</t>
+  </si>
+  <si>
+    <t>Su: April 6, 2025</t>
+  </si>
+  <si>
+    <t>Su: April 14, 2025</t>
+  </si>
+  <si>
+    <t>Su: April 20, 2025</t>
+  </si>
+  <si>
+    <t>Su: April 27, 2025</t>
   </si>
 </sst>
 </file>
@@ -697,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -717,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:16381" ht="18">
@@ -728,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16381" ht="18">
@@ -739,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16381" ht="18">
@@ -747,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16381" s="1" customFormat="1" ht="18">
@@ -761,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -8962,7 +8980,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16381" ht="18">
@@ -8970,10 +8988,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16381" ht="18">
@@ -8984,7 +9002,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="16" customHeight="1">
@@ -8995,7 +9013,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:16381" ht="18">
@@ -9006,7 +9024,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -9015,10 +9033,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16381" ht="18">
@@ -9026,10 +9044,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -9037,10 +9055,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -9048,10 +9066,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="16" customHeight="1">
@@ -9059,10 +9077,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:16381" ht="17" customHeight="1">
@@ -9070,10 +9088,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -9081,10 +9099,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
@@ -9092,10 +9110,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
@@ -9103,10 +9121,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" customHeight="1">
@@ -9114,10 +9132,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -9125,10 +9143,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -9137,10 +9155,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
@@ -9148,10 +9166,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9159,10 +9177,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -9170,10 +9188,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
@@ -9181,10 +9199,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -9192,10 +9210,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -9204,10 +9222,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
@@ -9215,10 +9233,10 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9226,10 +9244,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -9238,10 +9256,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">
@@ -9249,10 +9267,10 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
@@ -9260,10 +9278,10 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9271,10 +9289,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" customHeight="1">
@@ -9282,10 +9300,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
@@ -9293,10 +9311,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9304,10 +9322,10 @@
         <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18">
@@ -9315,10 +9333,10 @@
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
@@ -9326,10 +9344,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18">
@@ -9337,10 +9355,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18">
@@ -9348,10 +9366,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
@@ -9359,10 +9377,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
@@ -9370,10 +9388,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
@@ -9381,10 +9399,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
@@ -9392,10 +9410,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" customHeight="1">
@@ -9403,10 +9421,10 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D46" s="1"/>
     </row>

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7077ED-1825-0747-BC4C-6B8D07DF2E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FDC0D4-DAFA-B240-A063-76599A19D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,12 +231,6 @@
     <t>[W4: Learning and association](../modules/W4.html)</t>
   </si>
   <si>
-    <t>[W5: Language learning](../modules/W5.html)</t>
-  </si>
-  <si>
-    <t>[W6: Categorization](../modules/W6.html)</t>
-  </si>
-  <si>
     <t>[W11: Decision making](../modules/W11.html)</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>W4 continued…</t>
   </si>
   <si>
-    <t>W5 continued…</t>
-  </si>
-  <si>
     <t>W6 continued…</t>
   </si>
   <si>
@@ -328,6 +319,15 @@
   </si>
   <si>
     <t>Su: April 27, 2025</t>
+  </si>
+  <si>
+    <t>[W5:Categorization](../modules/W5.html)</t>
+  </si>
+  <si>
+    <t>[W6: Language](../modules/W6.html)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#d519de"&gt; President Safa Zaki Guest Lecture!&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +395,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBB0ED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -408,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -433,12 +439,20 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBB0ED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -715,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -765,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>43</v>
@@ -8988,7 +9002,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>45</v>
@@ -9002,7 +9016,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="16" customHeight="1">
@@ -9024,7 +9038,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -9033,7 +9047,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>46</v>
@@ -9058,7 +9072,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -9066,7 +9080,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>47</v>
@@ -9080,7 +9094,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:16381" ht="17" customHeight="1">
@@ -9090,8 +9104,8 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
+      <c r="C16" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -9099,7 +9113,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>51</v>
@@ -9110,10 +9124,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
@@ -9124,7 +9138,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" customHeight="1">
@@ -9135,7 +9149,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -9146,7 +9160,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -9213,7 +9227,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -9225,7 +9239,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
@@ -9233,7 +9247,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>52</v>
@@ -9247,7 +9261,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -9259,7 +9273,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">
@@ -9267,7 +9281,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>53</v>
@@ -9281,7 +9295,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9292,7 +9306,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" customHeight="1">
@@ -9303,7 +9317,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18">
@@ -9311,7 +9325,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>54</v>
@@ -9325,7 +9339,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18">
@@ -9336,7 +9350,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
@@ -9344,7 +9358,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>55</v>
@@ -9358,7 +9372,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18">
@@ -9369,7 +9383,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
@@ -9377,7 +9391,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>56</v>
@@ -9391,7 +9405,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
@@ -9413,7 +9427,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" customHeight="1">

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FDC0D4-DAFA-B240-A063-76599A19D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622F66D-6B7A-B648-B66C-37C5DB8FFDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>Week</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#d519de"&gt; President Safa Zaki Guest Lecture!&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer's Office Hours (7-9 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer: Midterm Review (7-9 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>W: March 5, 2025</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,14 +400,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFEBB0ED"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBB0ED"/>
+        <fgColor theme="7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,6 +463,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA46"/>
+  <dimension ref="A1:XFA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -776,7 +804,7 @@
     </row>
     <row r="4" spans="1:16381" ht="18">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>82</v>
@@ -8999,7 +9027,7 @@
     </row>
     <row r="7" spans="1:16381" ht="18">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>83</v>
@@ -9008,60 +9036,60 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16381" ht="18">
+    <row r="8" spans="1:16381" ht="34">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:16381" ht="16" customHeight="1">
+    <row r="9" spans="1:16381" ht="18">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:16381" ht="18">
+    <row r="10" spans="1:16381" ht="16" customHeight="1">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:16381" ht="18">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:16381" ht="18">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="18">
@@ -9069,378 +9097,433 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
       <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16381" ht="18">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16381" ht="34">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1">
+      <c r="A17">
         <v>5</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:16381" ht="16" customHeight="1">
-      <c r="A15">
+    <row r="18" spans="1:4" ht="17" customHeight="1">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16381" ht="17" customHeight="1">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" customHeight="1">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>94</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="16" customHeight="1">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
       <c r="A23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="18">
+    <row r="24" spans="1:4" ht="34">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>79</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" ht="18">
       <c r="A34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" customHeight="1">
+    <row r="35" spans="1:4" ht="18">
       <c r="A35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18">
+    <row r="36" spans="1:4" ht="34">
       <c r="A36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
       <c r="A37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18">
       <c r="A38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18">
+    <row r="39" spans="1:4" ht="17" customHeight="1">
       <c r="A39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18">
       <c r="A40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>67</v>
+        <v>90</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18">
       <c r="A41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
       <c r="A42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
       <c r="A43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
       <c r="A44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
       <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="34">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18">
+      <c r="A50">
         <v>16</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" customHeight="1">
-      <c r="A46">
+    <row r="51" spans="1:4" ht="17" customHeight="1">
+      <c r="A51">
         <v>17</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/cognition/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622F66D-6B7A-B648-B66C-37C5DB8FFDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F4046-5B77-3549-BE91-56246FCD4521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>[W2: Building blocks](../modules/W2.html)</t>
   </si>
   <si>
-    <t>[W4: Learning and association](../modules/W4.html)</t>
-  </si>
-  <si>
     <t>[W11: Decision making](../modules/W11.html)</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>W: March 5, 2025</t>
+  </si>
+  <si>
+    <t>[W4: Learning and association](../modules/W4.html) &lt;span style="color:red"&gt; | No Class!&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>43</v>
@@ -9030,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>45</v>
@@ -9041,10 +9041,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="18">
@@ -9055,7 +9055,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:16381" ht="16" customHeight="1">
@@ -9077,7 +9077,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -9086,13 +9086,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:16381" ht="18">
+    <row r="13" spans="1:16381" ht="34">
       <c r="A13">
         <v>4</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -9111,7 +9111,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="18">
@@ -9119,7 +9119,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>47</v>
@@ -9130,10 +9130,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" customHeight="1">
@@ -9144,7 +9144,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" customHeight="1">
@@ -9155,7 +9155,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
@@ -9163,7 +9163,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>51</v>
@@ -9174,10 +9174,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -9188,7 +9188,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1">
@@ -9199,7 +9199,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
@@ -9210,7 +9210,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -9219,10 +9219,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
@@ -9288,7 +9288,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -9300,7 +9300,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">
@@ -9308,7 +9308,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>52</v>
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="8"/>
     </row>
@@ -9334,7 +9334,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
@@ -9342,7 +9342,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>53</v>
@@ -9353,10 +9353,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9367,7 +9367,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18">
@@ -9378,7 +9378,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" customHeight="1">
@@ -9389,7 +9389,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18">
@@ -9397,7 +9397,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>54</v>
@@ -9411,7 +9411,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
@@ -9422,7 +9422,7 @@
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
@@ -9430,7 +9430,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>55</v>
@@ -9444,7 +9444,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
@@ -9455,7 +9455,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
@@ -9463,7 +9463,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>56</v>
@@ -9474,10 +9474,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18">
@@ -9488,7 +9488,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18">
@@ -9510,7 +9510,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" customHeight="1">

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F4046-5B77-3549-BE91-56246FCD4521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF4EA82-4C66-344F-AEA1-6BB419897D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>Week</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>[W4: Learning and association](../modules/W4.html) &lt;span style="color:red"&gt; | No Class!&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>W: February 12, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#2bda19"&gt; Project: Group Contract due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -755,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA51"/>
+  <dimension ref="A1:XFA52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9105,13 +9111,13 @@
     </row>
     <row r="14" spans="1:16381" ht="18">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="18">
@@ -9119,65 +9125,65 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:16381" ht="34">
+    <row r="16" spans="1:16381" ht="18">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" customHeight="1">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" customHeight="1">
+    <row r="18" spans="1:4" ht="16" customHeight="1">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>94</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18">
+    <row r="19" spans="1:4" ht="17" customHeight="1">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -9185,66 +9191,66 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" customHeight="1">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="34">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24">
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="34">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -9252,7 +9258,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>49</v>
@@ -9260,10 +9266,10 @@
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>49</v>
@@ -9274,100 +9280,100 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="18">
       <c r="A30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" ht="18">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="18">
       <c r="A34">
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="18">
       <c r="A35">
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34">
+    <row r="36" spans="1:4" ht="18">
       <c r="A36">
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18">
-      <c r="A37">
-        <v>12</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18">
@@ -9375,43 +9381,43 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" customHeight="1">
+    <row r="39" spans="1:4" ht="18">
       <c r="A39">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18">
+    <row r="40" spans="1:4" ht="17" customHeight="1">
       <c r="A40">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18">
       <c r="A41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
@@ -9419,10 +9425,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
@@ -9430,21 +9436,21 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
       <c r="A44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>66</v>
+        <v>90</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
@@ -9452,10 +9458,10 @@
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
@@ -9463,32 +9469,32 @@
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="34">
+    <row r="47" spans="1:4" ht="18">
       <c r="A47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="34">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18">
-      <c r="A48">
-        <v>15</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18">
@@ -9496,34 +9502,45 @@
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
       <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18">
+      <c r="A51">
         <v>16</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" customHeight="1">
-      <c r="A51">
+    <row r="52" spans="1:4" ht="17" customHeight="1">
+      <c r="A52">
         <v>17</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF4EA82-4C66-344F-AEA1-6BB419897D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8327C9-AA16-8A4D-A299-8204B65CC9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>Week</t>
   </si>
@@ -171,21 +171,9 @@
     <t>W1 continued…</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 1 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>W2 continued…</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 2 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 3 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 4 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt; Final Exam &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -195,24 +183,6 @@
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt; Midterm Exam &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 5 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 6 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 7 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 8 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 9 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Quiz 10 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Weekly Module</t>
   </si>
   <si>
@@ -309,9 +279,6 @@
     <t>Su: April 6, 2025</t>
   </si>
   <si>
-    <t>Su: April 14, 2025</t>
-  </si>
-  <si>
     <t>Su: April 20, 2025</t>
   </si>
   <si>
@@ -330,9 +297,6 @@
     <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer's Office Hours (7-9 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer: Midterm Review (7-9 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>W: March 5, 2025</t>
   </si>
   <si>
@@ -343,6 +307,54 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#2bda19"&gt; Project: Group Contract due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Su:March 2, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 1 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 2 Quiz due &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 3 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 4 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 5 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 6 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 10 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 11 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 12 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 13 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 14 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: April 26, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer's Office Hours (12-2 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer: Midterm Review (4.30-6.30 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Su: April 13, 2025</t>
   </si>
 </sst>
 </file>
@@ -761,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA52"/>
+  <dimension ref="A1:XFA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -783,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:16381" ht="18">
@@ -794,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16381" ht="18">
@@ -813,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:16381" s="1" customFormat="1" ht="18">
@@ -827,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -9028,7 +9040,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16381" ht="18">
@@ -9036,10 +9048,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:16381" ht="34">
@@ -9047,10 +9059,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="18">
@@ -9061,7 +9073,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:16381" ht="16" customHeight="1">
@@ -9072,7 +9084,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16381" ht="18">
@@ -9083,7 +9095,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -9092,10 +9104,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="34">
@@ -9106,7 +9118,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -9114,10 +9126,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="18">
@@ -9128,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:16381" ht="18">
@@ -9136,10 +9148,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -9147,10 +9159,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" customHeight="1">
@@ -9161,7 +9173,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" customHeight="1">
@@ -9172,7 +9184,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
@@ -9180,10 +9192,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -9191,10 +9203,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
@@ -9205,7 +9217,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1">
@@ -9216,52 +9228,52 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
       <c r="A24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" ht="34">
+    <row r="25" spans="1:4" ht="18">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>49</v>
+      <c r="C27" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
@@ -9269,21 +9281,21 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9291,100 +9303,100 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="18">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
       <c r="A34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="18">
       <c r="A35">
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="18">
       <c r="A36">
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34">
+    <row r="37" spans="1:4" ht="18">
       <c r="A37">
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18">
+    <row r="38" spans="1:4" ht="34">
       <c r="A38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="11" t="s">
         <v>78</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
@@ -9392,43 +9404,43 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" customHeight="1">
+    <row r="40" spans="1:4" ht="18">
       <c r="A40">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18">
+    <row r="41" spans="1:4" ht="17" customHeight="1">
       <c r="A41">
         <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
       <c r="A42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
@@ -9436,10 +9448,10 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
@@ -9447,21 +9459,21 @@
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
       <c r="A45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
@@ -9469,10 +9481,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18">
@@ -9480,32 +9492,32 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="34">
+    <row r="48" spans="1:4" ht="18">
       <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="34">
+      <c r="A49">
         <v>11</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18">
-      <c r="A49">
-        <v>15</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>79</v>
+        <v>101</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
@@ -9513,34 +9525,45 @@
         <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18">
       <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18">
+      <c r="A52">
         <v>16</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>80</v>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" customHeight="1">
-      <c r="A52">
+    <row r="53" spans="1:4" ht="17" customHeight="1">
+      <c r="A53">
         <v>17</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="1"/>
+      <c r="C53" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8327C9-AA16-8A4D-A299-8204B65CC9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582EE77D-DB8D-4C47-80A2-222DD9EA44FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,9 +291,6 @@
     <t>[W6: Language](../modules/W6.html)</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#d519de"&gt; President Safa Zaki Guest Lecture!&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer's Office Hours (7-9 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Su: April 13, 2025</t>
+  </si>
+  <si>
+    <t>W5 continued…</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,12 +413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBB0ED"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -453,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -484,10 +478,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -828,7 +819,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:16381" s="1" customFormat="1" ht="18">
@@ -9051,7 +9042,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:16381" ht="34">
@@ -9061,8 +9052,8 @@
       <c r="B8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>84</v>
+      <c r="C8" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="18">
@@ -9072,7 +9063,7 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9107,7 +9098,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="34">
@@ -9118,7 +9109,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -9126,10 +9117,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="18">
@@ -9151,7 +9142,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -9161,8 +9152,8 @@
       <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>84</v>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" customHeight="1">
@@ -9183,8 +9174,8 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>83</v>
+      <c r="C19" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
@@ -9195,7 +9186,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -9205,7 +9196,7 @@
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -9236,10 +9227,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -9259,10 +9250,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -9351,7 +9342,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
@@ -9385,7 +9376,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34">
@@ -9395,8 +9386,8 @@
       <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>84</v>
+      <c r="C38" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
@@ -9406,7 +9397,7 @@
       <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9437,10 +9428,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
@@ -9473,7 +9464,7 @@
         <v>79</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
@@ -9506,7 +9497,7 @@
         <v>80</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="34">
@@ -9514,10 +9505,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
@@ -9527,7 +9518,7 @@
       <c r="B50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9538,7 +9529,7 @@
       <c r="B51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>50</v>
       </c>
     </row>

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582EE77D-DB8D-4C47-80A2-222DD9EA44FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE4F088-F974-C34E-88C2-6C3E8ED6C54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,18 +165,12 @@
     <t>T: May 6, 2025</t>
   </si>
   <si>
-    <t>Finals week (TBD)</t>
-  </si>
-  <si>
     <t>W1 continued…</t>
   </si>
   <si>
     <t>W2 continued…</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt; Final Exam &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:green"&gt;Spring Break!&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -355,6 +349,12 @@
   </si>
   <si>
     <t>W5 continued…</t>
+  </si>
+  <si>
+    <t>T: May 13, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt; Final Exam (1.30-3 pm, VAC North) &lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16381" ht="18">
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16381" ht="18">
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16381" ht="18">
@@ -816,10 +816,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:16381" s="1" customFormat="1" ht="18">
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -9031,7 +9031,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16381" ht="18">
@@ -9039,10 +9039,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:16381" ht="34">
@@ -9050,10 +9050,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:16381" ht="18">
@@ -9064,7 +9064,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:16381" ht="16" customHeight="1">
@@ -9075,7 +9075,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:16381" ht="18">
@@ -9086,7 +9086,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -9095,10 +9095,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:16381" ht="34">
@@ -9109,7 +9109,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:16381" ht="18">
@@ -9117,10 +9117,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:16381" ht="18">
@@ -9131,7 +9131,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16381" ht="18">
@@ -9139,10 +9139,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -9150,10 +9150,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" customHeight="1">
@@ -9164,7 +9164,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" customHeight="1">
@@ -9175,7 +9175,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
@@ -9183,10 +9183,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -9194,10 +9194,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
@@ -9208,7 +9208,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1">
@@ -9219,7 +9219,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9227,10 +9227,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
@@ -9241,7 +9241,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -9250,10 +9250,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -9264,7 +9264,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
@@ -9275,7 +9275,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
@@ -9286,7 +9286,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9297,7 +9297,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
@@ -9308,7 +9308,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -9319,7 +9319,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -9331,7 +9331,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9339,10 +9339,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -9365,7 +9365,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18">
@@ -9373,10 +9373,10 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34">
@@ -9384,10 +9384,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18">
@@ -9398,7 +9398,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18">
@@ -9409,7 +9409,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" customHeight="1">
@@ -9420,7 +9420,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18">
@@ -9428,10 +9428,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18">
@@ -9442,7 +9442,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18">
@@ -9453,7 +9453,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18">
@@ -9461,10 +9461,10 @@
         <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18">
@@ -9475,7 +9475,7 @@
         <v>36</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18">
@@ -9486,7 +9486,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18">
@@ -9494,10 +9494,10 @@
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="34">
@@ -9505,10 +9505,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
@@ -9519,7 +9519,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18">
@@ -9530,7 +9530,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18">
@@ -9541,7 +9541,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" customHeight="1">
@@ -9549,10 +9549,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1"/>
     </row>

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE4F088-F974-C34E-88C2-6C3E8ED6C54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCE10E-40C0-B241-9445-63340B33AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>Week</t>
   </si>
@@ -336,12 +336,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Week 14 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>M: April 26, 2025</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer's Office Hours (12-2 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; Jennifer: Midterm Review (4.30-6.30 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -355,6 +349,9 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt; Final Exam (1.30-3 pm, VAC North) &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>S: April 27, 2025</t>
   </si>
 </sst>
 </file>
@@ -767,7 +764,7 @@
   <dimension ref="A1:XFA53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9175,7 +9172,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
@@ -9253,7 +9250,7 @@
         <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -9428,7 +9425,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>95</v>
@@ -9505,10 +9502,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18">
@@ -9549,10 +9546,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D53" s="1"/>
     </row>

--- a/articles/course_docs/cog_2025.xlsx
+++ b/articles/course_docs/cog_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCE10E-40C0-B241-9445-63340B33AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986E540-949E-B347-8661-D59EE715492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>Week</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>S: April 27, 2025</t>
+  </si>
+  <si>
+    <t>M: May 12, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt;Final Review Session (5-7 pm, Kanbar 200)&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA53"/>
+  <dimension ref="A1:XFA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9541,17 +9547,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" customHeight="1">
+    <row r="53" spans="1:4" ht="34">
       <c r="A53">
         <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="17" customHeight="1">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
